--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_end.xlsx
@@ -2284,7 +2284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] “Kazdel fell thrice to great fires. It was rebuilt multiple times, receiving millions of new souls and being reclaimed by the royal court each time. Yet, the previous residents have all been reduced to ashes in the wind.” 
+    <t xml:space="preserve">[name="Talulah?"] 'Kazdel fell thrice to great fires. It was rebuilt multiple times, receiving millions of new souls and being reclaimed by the royal court each time. Yet, the previous residents have all been reduced to ashes in the wind.' 
 </t>
   </si>
   <si>
@@ -2404,7 +2404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She sees her father falling over after pushing her out the door. She cannot remember exactly what her father said, only that he had tears in his eyes. “Goodbye. Live on, Amiya.”
+    <t xml:space="preserve">She sees her father falling over after pushing her out the door. She cannot remember exactly what her father said, only that he had tears in his eyes. 'Goodbye. Live on, Amiya.'
 </t>
   </si>
   <si>
@@ -2584,19 +2584,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"As move unsheathing blade, cleave now as cleft."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"As move at teardrop's point, once known be deft."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"As sword ere shadow's trace, cast off as cast."
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"As sword of stratus rent, once stood stand fast."
+    <t xml:space="preserve">'As move unsheathing blade, cleave now as cleft.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'As move at teardrop's point, once known be deft.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'As sword ere shadow's trace, cast off as cast.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'As sword of stratus rent, once stood stand fast.'
 </t>
   </si>
   <si>
@@ -3404,7 +3404,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">첸의 생각은 이미 잘 알고 있었던 그녀는 첸의 머릿속에 있던 전투에 관한 기억을 전부 모아, 용문과 체르노보그, 그리고 북툰드라에서의 모든 것들을 몸에 새겼다.
+    <t xml:space="preserve">첸의 생각을 이미 잘 알고 있었던 그녀는 첸의 머릿속에 있던 전투에 관한 기억을 전부 모아, 용문과 체르노보그, 그리고 북툰드라에서의 모든 것들을 몸에 새겼다.
 </t>
   </si>
   <si>
@@ -4028,7 +4028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="탈룰라?"] 검이 너희의 손발에 힘들 실어줬을진 몰라도 난 힘 그 자체다. 너희들이 나가떨어지면 내가 목숨을 거둬갈 거다.
+    <t xml:space="preserve">[name="탈룰라?"] 검이 너희의 손발에 힘을 실어줬을진 몰라도 난 힘 그 자체다. 너희들이 나가떨어지면 내가 목숨을 거둬갈 거다.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-16_end.xlsx
@@ -2148,11 +2148,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] Still not enough. You won’t be able to overcome my flames like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] *Pant* *pant*...
+    <t xml:space="preserve">[name="Talulah?"] Still not enough. You won't be able to overcome my flames like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] *Pant* *pant*...
 </t>
   </si>
   <si>
@@ -2176,23 +2176,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] If you continue speaking to my mind, I’ll have to ask you to leave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] It’s enough.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] Madam Ch'en’s emotions...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] They’re flowing towards me from the Chi Xiao.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] Before, we didn’t know each other at all. It’s the things that happened here that have bound us together, the fate of the Infected that has brought us here...
+    <t xml:space="preserve">[name="Talulah?"] If you continue speaking to my mind, I'll have to ask you to leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It's enough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Madam Ch'en's emotions...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] They're flowing towards me from the Chi Xiao.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Before, we didn't know each other at all. It's the things that happened here that have bound us together, the fate of the Infected that has brought us here...
 </t>
   </si>
   <si>
@@ -2204,7 +2204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] Rhodes Island is just a scarecrow for the various political entities. For them, you would kill your own kin while speaking of kindness, waiting for a chance to sow chaos for your own benefit. You don’t care about the Infected at all.
+    <t xml:space="preserve">[name="Talulah?"] Rhodes Island is just a scarecrow for the various political entities. For them, you would kill your own kin while speaking of kindness, waiting for a chance to sow chaos for your own benefit. You don't care about the Infected at all.
 </t>
   </si>
   <si>
@@ -2216,7 +2216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] It’s easy to see through your lies, since you only ever talk about the results and motivations, without ever saying what steps you take to achieve them! Your promise to Talulah was the exact same!
+    <t xml:space="preserve">[name="Amiya"] It's easy to see through your lies, since you only ever talk about the results and motivations, without ever saying what steps you take to achieve them! Your promise to Talulah was the exact same!
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya!
+    <t xml:space="preserve">[name="Ch'en"] Amiya!
 </t>
   </si>
   <si>
@@ -2240,19 +2240,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya... I have my regrets. If only I had met you sooner, so much may have turned out differently.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] But I’ve made many mistakes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] I think the old Madam Ch'en wouldn’t have agreed with me anyway.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Not Madam. Just call me Ch'en.
+    <t xml:space="preserve">[name="Ch'en"] Amiya... I have my regrets. If only I had met you sooner, so much may have turned out differently.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] But I've made many mistakes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I think the old Madam Ch'en wouldn't have agreed with me anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Not Madam. Just call me Ch'en.
 </t>
   </si>
   <si>
@@ -2260,11 +2260,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] That’s fine, it’s a bit more formal. Or is it too formal?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Sorry to drag you into this sisterly quarrel. I thought our reunion would be a little more dramatic... or at least a little more conventional.
+    <t xml:space="preserve">[name="Ch'en"] That's fine, it's a bit more formal. Or is it too formal?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Sorry to drag you into this sisterly quarrel. I thought our reunion would be a little more dramatic... or at least a little more conventional.
 </t>
   </si>
   <si>
@@ -2272,7 +2272,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Is crying very clichéd? I don’t think so. Any normal person would cry.
+    <t xml:space="preserve">[name="Amiya"] Is crying very clichéd? I don't think so. Any normal person would cry.
 </t>
   </si>
   <si>
@@ -2292,7 +2292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] But now, you’ve caught my attention once more. You won’t get another chance to escape.
+    <t xml:space="preserve">[name="Talulah?"] But now, you've caught my attention once more. You won't get another chance to escape.
 </t>
   </si>
   <si>
@@ -2300,11 +2300,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Damn it...! Amiya! Over here, quick!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] I’m not talking to you, sister. Now——
+    <t xml:space="preserve">[name="Ch'en"] Damn it...! Amiya! Over here, quick!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] I'm not talking to you, sister. Now——
 </t>
   </si>
   <si>
@@ -2312,7 +2312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya! 
+    <t xml:space="preserve">[name="Ch'en"] Amiya! 
 </t>
   </si>
   <si>
@@ -2320,7 +2320,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] You!
+    <t xml:space="preserve">[name="Ch'en"] You!
 </t>
   </si>
   <si>
@@ -2328,7 +2328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Let her go! Let her go, Talulah! I'm the one you want dead!
+    <t xml:space="preserve">[name="Ch'en"] Let her go! Let her go, Talulah! I'm the one you want dead!
 </t>
   </si>
   <si>
@@ -2344,7 +2344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She is intimately familiar with Ch'en’s thoughts. She has experienced all of Ch’en’s battles to this point. She has branded Lungmen, Chernobog, and all of the Northern Plains upon her body.
+    <t xml:space="preserve">She is intimately familiar with Ch'en's thoughts. She has experienced all of Ch'en's battles to this point. She has branded Lungmen, Chernobog, and all of the Northern Plains upon her body.
 </t>
   </si>
   <si>
@@ -2372,7 +2372,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Countless ideas form within Amiya’s mind, and dissipate just as quickly.
+    <t xml:space="preserve">Countless ideas form within Amiya's mind, and dissipate just as quickly.
 </t>
   </si>
   <si>
@@ -2380,11 +2380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She sees the Wendigo’s corpse standing tall.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She hears Alina’s irrepressible whispers.
+    <t xml:space="preserve">She sees the Wendigo's corpse standing tall.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She hears Alina's irrepressible whispers.
 </t>
   </si>
   <si>
@@ -2392,7 +2392,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She recalls Lisa taking gingerbread out of the oven. She thinks of Mimi’s handmade badges. She sees the light that shines faintly at Sunty’s chest as he walks through the corridor during a power outage, a silly grin on his freckled face.
+    <t xml:space="preserve">She recalls Lisa taking gingerbread out of the oven. She thinks of Mimi's handmade badges. She sees the light that shines faintly at Sunty's chest as he walks through the corridor during a power outage, a silly grin on his freckled face.
 </t>
   </si>
   <si>
@@ -2400,7 +2400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">She sees her mother holding onto her shoulder as she tries to grasp the fiddlestick. Her mother’s fingers are long and fair, though she is displeased at all the scars and calluses.
+    <t xml:space="preserve">She sees her mother holding onto her shoulder as she tries to grasp the fiddlestick. Her mother's fingers are long and fair, though she is displeased at all the scars and calluses.
 </t>
   </si>
   <si>
@@ -2460,7 +2460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amiya’s tears evaporate in the scorching flames.
+    <t xml:space="preserve">Amiya's tears evaporate in the scorching flames.
 </t>
   </si>
   <si>
@@ -2472,7 +2472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="The Sarkaz’s roars pierce through the tongues of flame, through the Arts, through the eras.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="The Sarkaz's roars pierce through the tongues of flame, through the Arts, through the eras.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -2516,7 +2516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Black and cerulean engulf the entirety of the longsword. That weight presses heavily on Amiya’s shoulders, the longsword that Amiya grips in her hand.
+    <t xml:space="preserve">Black and cerulean engulf the entirety of the longsword. That weight presses heavily on Amiya's shoulders, the longsword that Amiya grips in her hand.
 </t>
   </si>
   <si>
@@ -2532,7 +2532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="It breaks past the Sarkaz’s bottom line, past Amiya’s guard.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="It breaks past the Sarkaz's bottom line, past Amiya's guard.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -2544,11 +2544,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Subtitle(text="Even if I don’t take revenge, even if I never hold a grudge, I still have the right to rage on forever! The Sarkaz roars furiously.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Subtitle(text="They should never have done so if they didn’t expect this!", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+    <t xml:space="preserve">[Subtitle(text="Even if I don't take revenge, even if I never hold a grudge, I still have the right to rage on forever! The Sarkaz roars furiously.", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Subtitle(text="They should never have done so if they didn't expect this!", x=200, y=360, alignment="left", size=24, delay=0.04, width=1280)]
 </t>
   </si>
   <si>
@@ -2600,19 +2600,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Many more memories fall into Amiya’s mindscape, the river of time gushing through Amiya’s consciousness.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It’s not a happy ending. But, Amiya has run out of time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amiya sees Ch'en’s rage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amiya sees Talulah’s flames.
+    <t xml:space="preserve">Many more memories fall into Amiya's mindscape, the river of time gushing through Amiya's consciousness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not a happy ending. But, Amiya has run out of time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiya sees Ch'en's rage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiya sees Talulah's flames.
 </t>
   </si>
   <si>
@@ -2628,7 +2628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] ... Sword...
+    <t xml:space="preserve">[name="Ch'en"] ... Sword...
 </t>
   </si>
   <si>
@@ -2640,11 +2640,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] It’s genuine. Congratulations, Cautus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] You’re not a fragment, not an experiment, not an impostor.
+    <t xml:space="preserve">[name="Talulah?"] It's genuine. Congratulations, Cautus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] You're not a fragment, not an experiment, not an impostor.
 </t>
   </si>
   <si>
@@ -2652,7 +2652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] No, I’m nothing but an Infected.
+    <t xml:space="preserve">[name="Amiya"] No, I'm nothing but an Infected.
 </t>
   </si>
   <si>
@@ -2660,11 +2660,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] I’m a bit... speechless.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya, you... what kind of magic is that?
+    <t xml:space="preserve">[name="Ch'en"] I'm a bit... speechless.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Amiya, you... what kind of magic is that?
 </t>
   </si>
   <si>
@@ -2672,7 +2672,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Maybe. But actually, it matters a lot to me. Why are you holding a sword that looks so much like Chi Xiao? Why do you know the sword techniques that I’ve diligently practiced for over ten years? 
+    <t xml:space="preserve">[name="Ch'en"] Maybe. But actually, it matters a lot to me. Why are you holding a sword that looks so much like Chi Xiao? Why do you know the sword techniques that I've diligently practiced for over ten years? 
 </t>
   </si>
   <si>
@@ -2680,7 +2680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Nevermind, let’s leave it for next time. How similar is this sword to Chi Xiao?
+    <t xml:space="preserve">[name="Ch'en"] Nevermind, let's leave it for next time. How similar is this sword to Chi Xiao?
 </t>
   </si>
   <si>
@@ -2688,35 +2688,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Alright, Amiya. How much of my sword techniques do you know?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] All. All that I’ve seen, all that I’ve found within your heart, I know it all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] ...What did you find in my heart?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] Erm, Miss Ch'en... D-don’t worry, I only saw those things that you wished for me to learn. I can distinguish these things. I-I really didn’t look at anything else.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Forget it all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Wei Yenwu always said that handling Chi Xiao relies more on one’s state of mind rather than one's mastery over the sword.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I always thought he was bullshitting, but I have to admit I’m unlikely to ever reach his level of swordsmanship.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] So, you can just ignore him when he’s waxing lyrical about cooperation and principles, but when it comes to the sword you must listen to us both!
+    <t xml:space="preserve">[name="Ch'en"] Alright, Amiya. How much of my sword techniques do you know?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] All. All that I've seen, all that I've found within your heart, I know it all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] ...What did you find in my heart?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Erm, Miss Ch'en... D-don't worry, I only saw those things that you wished for me to learn. I can distinguish these things. I-I really didn't look at anything else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Forget it all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Wei Yenwu always said that handling Chi Xiao relies more on one's state of mind rather than one's mastery over the sword.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I always thought he was bullshitting, but I have to admit I'm unlikely to ever reach his level of swordsmanship.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] So, you can just ignore him when he's waxing lyrical about cooperation and principles, but when it comes to the sword you must listen to us both!
 </t>
   </si>
   <si>
@@ -2728,19 +2728,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Since when have weapons been evil or not? What kind of weapon could be more evil than you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Listen up, Amiya!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] If your resentment and my fury are one and the same, then so too are our swords!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Let’s go, Amiya! Take her down, dead or alive!
+    <t xml:space="preserve">[name="Ch'en"] Since when have weapons been evil or not? What kind of weapon could be more evil than you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Listen up, Amiya!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] If your resentment and my fury are one and the same, then so too are our swords!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Let's go, Amiya! Take her down, dead or alive!
 </t>
   </si>
   <si>
@@ -2748,23 +2748,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Don’t act like we have a choice!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] You’ve gained so much confidence from such a weapon?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] I’ve been through this tomfoolery once already today, and I don’t fancy an encore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] Let’s test your sword, Cautus. I’ll see your skills for myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Too slow! Chi Xiao!
+    <t xml:space="preserve">[name="Ch'en"] Don't act like we have a choice!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] You've gained so much confidence from such a weapon?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] I've been through this tomfoolery once already today, and I don't fancy an encore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] Let's test your sword, Cautus. I'll see your skills for myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Too slow! Chi Xiao!
 </t>
   </si>
   <si>
@@ -2800,11 +2800,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Don't underestimate that little scratch!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Every little wound and cut we give her will build up and accumulate. We’ll wear her down eventually!
+    <t xml:space="preserve">[name="Ch'en"] Don't underestimate that little scratch!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Every little wound and cut we give her will build up and accumulate. We'll wear her down eventually!
 </t>
   </si>
   <si>
@@ -2812,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Who do you think you are, talking like that while wearing that face?
+    <t xml:space="preserve">[name="Ch'en"] Who do you think you are, talking like that while wearing that face?
 </t>
   </si>
   <si>
@@ -2820,11 +2820,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] You seem very happy carving up your sister’s body with an outsider, Hui-chieh.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] You dare call me that?
+    <t xml:space="preserve">[name="Talulah?"] You seem very happy carving up your sister's body with an outsider, Hui-chieh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] You dare call me that?
 </t>
   </si>
   <si>
@@ -2832,7 +2832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] You...
+    <t xml:space="preserve">[name="Ch'en"] You...
 </t>
   </si>
   <si>
@@ -2844,7 +2844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] At least... at least... Hui-chieh, Hui-chieh... Don’t make me kill you. I don’t want to, I can’t...
+    <t xml:space="preserve">[name="Talulah?"] At least... at least... Hui-chieh, Hui-chieh... Don't make me kill you. I don't want to, I can't...
 </t>
   </si>
   <si>
@@ -2852,11 +2852,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] ...I... That time twenty years ago, I...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah?"] You didn’t come with me.
+    <t xml:space="preserve">[name="Ch'en"] ...I... That time twenty years ago, I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah?"] You didn't come with me.
 </t>
   </si>
   <si>
@@ -2864,11 +2864,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] It’s all because of you. Because you went back on your promise.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Ah...
+    <t xml:space="preserve">[name="Talulah?"] It's all because of you. Because you went back on your promise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Ah...
 </t>
   </si>
   <si>
@@ -2876,7 +2876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] Why did you willingly stay by that evil dragon’s side?
+    <t xml:space="preserve">[name="Talulah?"] Why did you willingly stay by that evil dragon's side?
 </t>
   </si>
   <si>
@@ -2884,11 +2884,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah?"] And now you’re doing his bidding?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] It’s lying!
+    <t xml:space="preserve">[name="Talulah?"] And now you're doing his bidding?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It's lying!
 </t>
   </si>
   <si>
@@ -2904,11 +2904,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] The sky was clear. I will never forget... That night, there was no moonlight, no stars——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] But it was daytime when you dragged me out. It was during the day.
+    <t xml:space="preserve">[name="Ch'en"] The sky was clear. I will never forget... That night, there was no moonlight, no stars——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] But it was daytime when you dragged me out. It was during the day.
 </t>
   </si>
   <si>
@@ -2916,7 +2916,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] No. Talulah, Kashchey’s Originium Arts didn’t begin taking effect after his death...
+    <t xml:space="preserve">[name="Amiya"] No. Talulah, Kashchey's Originium Arts didn't begin taking effect after his death...
 </t>
   </si>
   <si>
@@ -2928,7 +2928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Even if he didn’t tamper with your memories, he was still exploiting those fuzzy corners of your mind!
+    <t xml:space="preserve">[name="Amiya"] Even if he didn't tamper with your memories, he was still exploiting those fuzzy corners of your mind!
 </t>
   </si>
   <si>
@@ -2944,7 +2944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] If there had to be sacrifices, wouldn’t you have let yourself be the first?
+    <t xml:space="preserve">[name="Amiya"] If there had to be sacrifices, wouldn't you have let yourself be the first?
 </t>
   </si>
   <si>
@@ -2984,7 +2984,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] It’s pointless to hide in your shell. Face me.
+    <t xml:space="preserve">[name="Amiya"] It's pointless to hide in your shell. Face me.
 </t>
   </si>
   <si>
@@ -3040,7 +3040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Um, sorry. It’s something like this, right?
+    <t xml:space="preserve">[name="Amiya"] Um, sorry. It's something like this, right?
 </t>
   </si>
   <si>
@@ -3060,19 +3060,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Amiya, there’s not much time left. She’s planning to burn off all the oxygen here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The rabbit beside her is also a veteran of many battles. This reminder should have been unnecessary, but it’s enough to divert her attention.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There’s only one reason to do so. Ch'en wants to draw her attention. Ch'en breathes in deeply.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She’s struggling to keep calm.
+    <t xml:space="preserve">[name="Ch'en"] Amiya, there's not much time left. She's planning to burn off all the oxygen here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rabbit beside her is also a veteran of many battles. This reminder should have been unnecessary, but it's enough to divert her attention.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's only one reason to do so. Ch'en wants to draw her attention. Ch'en breathes in deeply.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She's struggling to keep calm.
 </t>
   </si>
   <si>
@@ -3092,7 +3092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It wasn’t that she was unable to draw Chi Xiao before. She just hadn’t reached a point where she needed to use it.
+    <t xml:space="preserve">It wasn't that she was unable to draw Chi Xiao before. She just hadn't reached a point where she needed to use it.
 </t>
   </si>
   <si>
@@ -3100,7 +3100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The trembling gradually stops. It’s time, Ch'en feels. Chi Xiao has been waiting for far too long.
+    <t xml:space="preserve">The trembling gradually stops. It's time, Ch'en feels. Chi Xiao has been waiting for far too long.
 </t>
   </si>
   <si>
@@ -3112,7 +3112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Amiya doesn’t feel as if she is the one speaking.
+    <t xml:space="preserve">Amiya doesn't feel as if she is the one speaking.
 </t>
   </si>
   <si>
@@ -3124,7 +3124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">That’s not a bad thing. She cannot actually be Ch'en, after all.
+    <t xml:space="preserve">That's not a bad thing. She cannot actually be Ch'en, after all.
 </t>
   </si>
   <si>
@@ -3140,7 +3140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] That is just an outcome, I believe. Besides, we don’t possess that authority.
+    <t xml:space="preserve">[name="Amiya"] That is just an outcome, I believe. Besides, we don't possess that authority.
 </t>
   </si>
   <si>
@@ -3148,7 +3148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] No, Madam Ch'en... Miss Ch'en. That’s not right.
+    <t xml:space="preserve">[name="Amiya"] No, Madam Ch'en... Miss Ch'en. That's not right.
 </t>
   </si>
   <si>
@@ -3168,7 +3168,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Exactly. That’s just an outcome. I want them to be judged for their crimes. Death can come after they are sentenced.
+    <t xml:space="preserve">[name="Ch'en"] Exactly. That's just an outcome. I want them to be judged for their crimes. Death can come after they are sentenced.
 </t>
   </si>
   <si>
@@ -3176,11 +3176,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] It’s not confidence, monster.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] It’s called responsibility.
+    <t xml:space="preserve">[name="Ch'en"] It's not confidence, monster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] It's called responsibility.
 </t>
   </si>
   <si>
@@ -3188,7 +3188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] It’s our duty.
+    <t xml:space="preserve">[name="Amiya"] It's our duty.
 </t>
   </si>
   <si>
@@ -3204,7 +3204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] You’ve driven yourself into a corner. You cannot escape.
+    <t xml:space="preserve">[name="Amiya"] You've driven yourself into a corner. You cannot escape.
 </t>
   </si>
   <si>
